--- a/projects/validation - single vehicle motion/data/external/45-mph-fishhook-nhtsa-data.xlsx
+++ b/projects/validation - single vehicle motion/data/external/45-mph-fishhook-nhtsa-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\research\sae-2021\vehicle-dymanimcs-malibu\engineering\pc-crash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/260f1994eb51c2be/pycrash/projects/validation - single vehicle motion/data/external/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD58F7E1-D44D-41FE-8AA4-D4B55EC6A840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{BD58F7E1-D44D-41FE-8AA4-D4B55EC6A840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0FA1EB0C-4ABF-48FA-94F1-D697FAADF2B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -533,22 +533,22 @@
   <dimension ref="A1:AF112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+      <selection activeCell="L2" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
       <c r="B1" s="5" t="s">
         <v>4</v>
@@ -595,7 +595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>0.1</v>
       </c>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>0.2</v>
       </c>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>0.3</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>0.4</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>0.5</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>0.6</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>0.7</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>0.8</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>0.9</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>4.0668742004895035E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>1.2</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>0.65142009979751947</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>1.3</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>2.4433628381099046</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>1.4</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>4.8621990379261408</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>1.5</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>7.1669211966117707</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>1.6</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>7.6000137661814096</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>1.7</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>7.6000175876573728</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>1.8</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>7.6000056361048882</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>1.9</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>7.600013978804637</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>7.6000222227513348</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>2.1</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>7.5999898551827343</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>7.5999871999317321</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>2.4</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>7.6000035443920329</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>2.5</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>7.5999951443935956</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>2.6</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>7.6000011768305606</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>2.7</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>7.6000010900043868</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>2.8</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>7.6000078073916475</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>2.9</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>4.648674012455186</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>3</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>0.41372306674958864</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>3.1</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>-3.4140326171292519</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>3.2</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>-6.69879948324213</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>3.3</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>-7.5999988019611884</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>3.4</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>-7.599995466693592</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>3.5</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>-7.5999978392277399</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>3.6</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>-7.6000066658149237</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>3.7</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>-7.6</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>3.8</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>-7.6000013285534926</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>3.9</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>-7.5999934111910914</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>4</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>-7.6000061249444926</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>4.0999999999999996</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>-7.5999938766427819</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>4.2</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>-7.5999991240153388</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>4.3</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>-7.6000008771525875</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>4.4000000000000004</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>-7.6000043884430362</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>4.5</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>-7.5999929785219571</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>4.5999999999999996</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>-7.6000087746237881</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>4.7</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>-7.5999973682017359</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>4.8</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>-7.5999934211247684</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>4.9000000000000004</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>-7.5999942982581183</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>5</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>-7.5999934207640685</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>5.0999999999999996</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>-7.6</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>5.2</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>-7.5999978073060559</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>5.3</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>-7.600001313430484</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>5.4</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>-7.6000017469461199</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>5.5</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>-7.5999943362955227</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>5.6</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>-7.6000086947543464</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>5.7</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>-7.6000043391713268</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>5.8</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>-7.5999995668553364</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>5.9</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>-7.6000008647554846</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>6</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>-7.6</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>6.1</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>-7.6000012924934151</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>6.2</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>-7.6000012902004972</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>6.3</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>-7.5999931309393221</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>6.4</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>-7.6000038572227568</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>6.5</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>-7.6000031923493072</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>6.6</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>-7.5999955854883972</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>6.7</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>-7.6000048866674916</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>6.8</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>-4.9098022587981342E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>6.9</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>0.28308289747581644</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>7</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>0.3298650822096188</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>7.1</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>0.25496389491084254</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>7.2</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>0.11693656230318614</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>7.3</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>6.9531053547349465E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>7.4</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>-5.4077728167057554E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>7.5</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>-5.7889778929857492E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>7.6</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>-3.5435777893306944E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>7.7</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>-1.2080530128033402E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>7.8</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>-1.8586449802223274E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>7.9</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>6.7296571594759654E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>8</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>7.3707041558261528E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>8.1</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>4.6123279246889637E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>8.1999999999999993</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>1.975627177200249E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>8.3000000000000007</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>4.8954401507120325E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>8.4</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>1.6879887782506023E-5</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>8.5</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>-3.3761770197134976E-5</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>8.6</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>-8.4409555161644301E-5</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>8.6999999999999993</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>-6.752958217759267E-5</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>8.8000000000000007</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>-3.3764905095292995E-5</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>8.9</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>-1.6882367042918352E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>9</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>-1.6882224536962786E-5</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>9.1</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>-1.6882224536962786E-5</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>9.1999999999999993</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>-1.6882281539056312E-5</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>9.3000000000000007</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>-1.6882253037961432E-5</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>9.4</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>-1.6882281539056312E-5</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>9.5</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>-1.6882281539056312E-5</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>9.6</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>-1.6882281539056312E-5</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>9.6999999999999993</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>-1.6882281539056312E-5</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>9.8000000000000007</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>-1.6882281539056312E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>9.9</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>-1.6882281539056312E-5</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>10</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>-1.6882281539056312E-5</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>10.1</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>-1.6882281539056312E-5</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>10.199999999999999</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>10.3</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>10.4</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>10.5</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>10.6</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>10.7</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>10.8</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>10.9</v>
       </c>
@@ -11271,7 +11271,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
